--- a/External file/Book1.xlsx
+++ b/External file/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be3e71d20030ca90/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\OneDrive\Desktop\testmvn\TestMVN\External file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7CF8E8-D5B3-4012-B3B9-3BF47D439897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0835B88-9C3E-4EB4-9848-2CD69AD140B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4E7F6A25-1D8D-4618-9B77-ABB8C75D1530}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4E7F6A25-1D8D-4618-9B77-ABB8C75D1530}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,16 +168,30 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,14 +199,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,268 +549,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F78098-245E-45C5-BA28-4544133455EB}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>56</v>
       </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
